--- a/ECS_Fargate_CWMetrics/20230804_CWAlarm math metrics logic.xlsx
+++ b/ECS_Fargate_CWMetrics/20230804_CWAlarm math metrics logic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\My Documents\AWS - Docs\CaseWork\Dev - ECS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\My Documents\GitHub\Terraform\ECS_Fargate_CWMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0D77A-3921-4940-A81C-FAB74CEEF46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC363F-5A62-43FC-B7A5-9CF22E1A4FA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{0F5B8062-2AEF-4326-B68A-688FB504D830}"/>
   </bookViews>
@@ -425,12 +425,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -500,15 +501,15 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <f>IF(C5&lt;25,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <f>IF(D5=1,E$1,E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -519,15 +520,15 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <f>IF(C6&gt;2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <f>IF(D6=1,E$1,E$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
